--- a/forms/psa_bag_pre_wt/psa_bag_pre_wt.xlsx
+++ b/forms/psa_bag_pre_wt/psa_bag_pre_wt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5280"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="145">
   <si>
     <t>type</t>
   </si>
@@ -380,9 +380,6 @@
     <t>bionote2</t>
   </si>
   <si>
-    <t>Hello, PSA On-Farm Team. Will you be doing the full Decomp Bag protocol or Biomass Only?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Is this your first time doing this bag pre-weight protocol?</t>
   </si>
   <si>
@@ -441,6 +438,24 @@
   </si>
   <si>
     <t>Pre Weight Bag Plus Tag (grams)</t>
+  </si>
+  <si>
+    <t>unsure</t>
+  </si>
+  <si>
+    <t>I don't know</t>
+  </si>
+  <si>
+    <t>${biomass_only}='unsure'</t>
+  </si>
+  <si>
+    <t>unsure_note</t>
+  </si>
+  <si>
+    <t>Hello, PSA On-Farm Team. Will you be doing the full Decomp Bag protocol (most of you) or Biomass Only?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you were distributed mesh bags and 24 barcodes per farm you are doing the "Full Protocol - Biomass and Decomp Bags". If you are a partner that will be evaluating tech tools like water sensors and need to report Biomass only, you will be selecting the "Biomass Only" portion of the protocol.  Now that you know - select one of the options to proceed. </t>
   </si>
 </sst>
 </file>
@@ -782,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -808,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -860,13 +875,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
         <v>126</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>127</v>
-      </c>
-      <c r="D6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -897,7 +912,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -908,7 +923,7 @@
         <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -916,38 +931,35 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>111</v>
@@ -958,10 +970,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -975,13 +987,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
+        <v>137</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>111</v>
@@ -989,58 +1001,58 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1048,16 +1060,16 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1065,16 +1077,16 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1082,300 +1094,300 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>127</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>127</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
@@ -1386,13 +1398,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
@@ -1403,7 +1415,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
       </c>
       <c r="G42" t="s">
         <v>115</v>
@@ -1411,19 +1432,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
         <v>115</v>
@@ -1431,13 +1440,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>127</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
@@ -1448,13 +1460,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
@@ -1465,7 +1477,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
       </c>
       <c r="G46" t="s">
         <v>115</v>
@@ -1473,19 +1494,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>115</v>
@@ -1493,13 +1502,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>127</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -1510,13 +1522,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F49" t="s">
         <v>14</v>
@@ -1527,7 +1539,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
       </c>
       <c r="G50" t="s">
         <v>115</v>
@@ -1535,19 +1556,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>115</v>
@@ -1555,13 +1564,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>127</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
@@ -1572,13 +1584,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
@@ -1589,7 +1601,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
       </c>
       <c r="G54" t="s">
         <v>115</v>
@@ -1597,19 +1618,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>115</v>
@@ -1617,13 +1626,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>127</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -1634,13 +1646,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -1651,7 +1663,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
       </c>
       <c r="G58" t="s">
         <v>115</v>
@@ -1659,19 +1680,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" t="s">
-        <v>128</v>
-      </c>
-      <c r="F59" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>115</v>
@@ -1679,13 +1688,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>127</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
@@ -1696,13 +1708,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
@@ -1713,7 +1725,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
       </c>
       <c r="G62" t="s">
         <v>115</v>
@@ -1721,19 +1742,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" t="s">
-        <v>128</v>
-      </c>
-      <c r="F63" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
         <v>115</v>
@@ -1741,13 +1750,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>127</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -1758,13 +1770,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -1775,7 +1787,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
       </c>
       <c r="G66" t="s">
         <v>115</v>
@@ -1783,19 +1804,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" t="s">
-        <v>128</v>
-      </c>
-      <c r="F67" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>115</v>
@@ -1803,13 +1812,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>127</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
@@ -1820,13 +1832,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
@@ -1837,7 +1849,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
       </c>
       <c r="G70" t="s">
         <v>115</v>
@@ -1845,19 +1866,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" t="s">
-        <v>128</v>
-      </c>
-      <c r="F71" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
         <v>115</v>
@@ -1865,13 +1874,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D72" t="s">
+        <v>127</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
@@ -1882,13 +1894,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F73" t="s">
         <v>14</v>
@@ -1899,7 +1911,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
       </c>
       <c r="G74" t="s">
         <v>115</v>
@@ -1907,19 +1928,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" t="s">
-        <v>128</v>
-      </c>
-      <c r="F75" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
         <v>115</v>
@@ -1927,13 +1936,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>127</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
@@ -1944,13 +1956,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
@@ -1961,7 +1973,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B78" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" t="s">
+        <v>138</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
       </c>
       <c r="G78" t="s">
         <v>115</v>
@@ -1969,19 +1990,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" t="s">
-        <v>128</v>
-      </c>
-      <c r="F79" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>115</v>
@@ -1989,13 +1998,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>127</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
@@ -2006,13 +2018,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C81" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -2023,7 +2035,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
       </c>
       <c r="G82" t="s">
         <v>115</v>
@@ -2031,19 +2052,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" t="s">
-        <v>128</v>
-      </c>
-      <c r="F83" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
         <v>115</v>
@@ -2051,13 +2060,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D84" t="s">
+        <v>127</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -2068,13 +2080,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -2085,7 +2097,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B86" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" t="s">
+        <v>138</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
       </c>
       <c r="G86" t="s">
         <v>115</v>
@@ -2093,19 +2114,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87" t="s">
-        <v>25</v>
-      </c>
-      <c r="D87" t="s">
-        <v>128</v>
-      </c>
-      <c r="F87" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>115</v>
@@ -2113,13 +2122,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D88" t="s">
+        <v>127</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -2130,13 +2142,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C89" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -2147,7 +2159,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B90" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" t="s">
+        <v>138</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
       </c>
       <c r="G90" t="s">
         <v>115</v>
@@ -2155,19 +2176,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" t="s">
-        <v>79</v>
-      </c>
-      <c r="C91" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" t="s">
-        <v>128</v>
-      </c>
-      <c r="F91" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>115</v>
@@ -2175,13 +2184,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>127</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -2192,13 +2204,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C93" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -2209,7 +2221,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" t="s">
+        <v>138</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
       </c>
       <c r="G94" t="s">
         <v>115</v>
@@ -2217,19 +2238,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" t="s">
-        <v>82</v>
-      </c>
-      <c r="C95" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" t="s">
-        <v>128</v>
-      </c>
-      <c r="F95" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
         <v>115</v>
@@ -2237,13 +2246,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C96" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D96" t="s">
+        <v>127</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
@@ -2254,13 +2266,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C97" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F97" t="s">
         <v>14</v>
@@ -2271,7 +2283,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B98" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" t="s">
+        <v>138</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
       </c>
       <c r="G98" t="s">
         <v>115</v>
@@ -2279,19 +2300,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>23</v>
-      </c>
-      <c r="B99" t="s">
-        <v>85</v>
-      </c>
-      <c r="C99" t="s">
-        <v>25</v>
-      </c>
-      <c r="D99" t="s">
-        <v>128</v>
-      </c>
-      <c r="F99" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
         <v>115</v>
@@ -2299,13 +2308,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D100" t="s">
+        <v>127</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -2316,13 +2328,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C101" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
@@ -2333,7 +2345,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B102" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" t="s">
+        <v>138</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
       </c>
       <c r="G102" t="s">
         <v>115</v>
@@ -2341,19 +2362,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" t="s">
-        <v>88</v>
-      </c>
-      <c r="C103" t="s">
-        <v>25</v>
-      </c>
-      <c r="D103" t="s">
-        <v>128</v>
-      </c>
-      <c r="F103" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
         <v>115</v>
@@ -2361,13 +2370,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C104" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D104" t="s">
+        <v>127</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
@@ -2378,13 +2390,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C105" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F105" t="s">
         <v>14</v>
@@ -2395,7 +2407,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B106" t="s">
+        <v>90</v>
+      </c>
+      <c r="C106" t="s">
+        <v>138</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
       </c>
       <c r="G106" t="s">
         <v>115</v>
@@ -2403,19 +2424,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>23</v>
-      </c>
-      <c r="B107" t="s">
-        <v>91</v>
-      </c>
-      <c r="C107" t="s">
-        <v>25</v>
-      </c>
-      <c r="D107" t="s">
-        <v>128</v>
-      </c>
-      <c r="F107" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
         <v>115</v>
@@ -2423,13 +2432,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C108" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>127</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -2440,13 +2452,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C109" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
@@ -2457,7 +2469,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B110" t="s">
+        <v>93</v>
+      </c>
+      <c r="C110" t="s">
+        <v>138</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
       </c>
       <c r="G110" t="s">
         <v>115</v>
@@ -2465,19 +2486,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>23</v>
-      </c>
-      <c r="B111" t="s">
-        <v>94</v>
-      </c>
-      <c r="C111" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111" t="s">
-        <v>128</v>
-      </c>
-      <c r="F111" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
         <v>115</v>
@@ -2485,13 +2494,16 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C112" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D112" t="s">
+        <v>127</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
@@ -2502,13 +2514,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C113" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F113" t="s">
         <v>14</v>
@@ -2519,7 +2531,16 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B114" t="s">
+        <v>96</v>
+      </c>
+      <c r="C114" t="s">
+        <v>138</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
       </c>
       <c r="G114" t="s">
         <v>115</v>
@@ -2527,19 +2548,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>23</v>
-      </c>
-      <c r="B115" t="s">
-        <v>97</v>
-      </c>
-      <c r="C115" t="s">
-        <v>25</v>
-      </c>
-      <c r="D115" t="s">
-        <v>128</v>
-      </c>
-      <c r="F115" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
         <v>115</v>
@@ -2547,13 +2556,16 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C116" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="D116" t="s">
+        <v>127</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
@@ -2564,13 +2576,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B117" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C117" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
@@ -2581,9 +2593,26 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" t="s">
+        <v>99</v>
+      </c>
+      <c r="C118" t="s">
+        <v>138</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>30</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G119" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2594,10 +2623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2644,10 +2673,10 @@
         <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2655,10 +2684,21 @@
         <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/forms/psa_bag_pre_wt/psa_bag_pre_wt.xlsx
+++ b/forms/psa_bag_pre_wt/psa_bag_pre_wt.xlsx
@@ -98,9 +98,6 @@
     <t>group_000</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>barcode</t>
   </si>
   <si>
@@ -456,16 +453,26 @@
   </si>
   <si>
     <t xml:space="preserve">If you were distributed mesh bags and 24 barcodes per farm you are doing the "Full Protocol - Biomass and Decomp Bags". If you are a partner that will be evaluating tech tools like water sensors and need to report Biomass only, you will be selecting the "Biomass Only" portion of the protocol.  Now that you know - select one of the options to proceed. </t>
+  </si>
+  <si>
+    <t>Bag Pre Wt (g)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,8 +498,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -823,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -875,13 +883,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
         <v>125</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>126</v>
-      </c>
-      <c r="D6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -895,7 +903,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -912,18 +920,18 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
         <v>108</v>
       </c>
-      <c r="B9" t="s">
-        <v>109</v>
-      </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -934,18 +942,18 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -953,16 +961,16 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -970,16 +978,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -987,16 +995,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1004,21 +1012,21 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
         <v>120</v>
       </c>
-      <c r="C15" t="s">
-        <v>121</v>
-      </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1026,16 +1034,16 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1043,16 +1051,16 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" t="s">
         <v>129</v>
       </c>
-      <c r="C18" t="s">
-        <v>130</v>
-      </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1063,13 +1071,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1080,13 +1088,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1103,7 +1111,7 @@
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1114,18 +1122,18 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1135,59 +1143,59 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
+      <c r="C24" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1195,61 +1203,61 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1257,61 +1265,61 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -1319,61 +1327,61 @@
         <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F38" t="s">
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -1381,61 +1389,61 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -1443,61 +1451,61 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -1505,61 +1513,61 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F49" t="s">
         <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -1567,61 +1575,61 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" t="s">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -1629,61 +1637,61 @@
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" t="s">
-        <v>25</v>
+        <v>51</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -1691,61 +1699,61 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -1753,61 +1761,61 @@
         <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" t="s">
-        <v>25</v>
+        <v>57</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -1815,61 +1823,61 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" t="s">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F68" t="s">
         <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -1877,61 +1885,61 @@
         <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" t="s">
-        <v>25</v>
+        <v>63</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F73" t="s">
         <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
         <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -1939,61 +1947,61 @@
         <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" t="s">
-        <v>25</v>
+        <v>66</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F76" t="s">
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -2001,61 +2009,61 @@
         <v>23</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
-      </c>
-      <c r="C80" t="s">
-        <v>25</v>
+        <v>69</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -2063,61 +2071,61 @@
         <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
-      </c>
-      <c r="C84" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -2125,61 +2133,61 @@
         <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" t="s">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -2187,61 +2195,61 @@
         <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
-      </c>
-      <c r="C92" t="s">
-        <v>25</v>
+        <v>78</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -2249,61 +2257,61 @@
         <v>23</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
-      </c>
-      <c r="C96" t="s">
-        <v>25</v>
+        <v>81</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D96" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F97" t="s">
         <v>14</v>
       </c>
       <c r="G97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -2311,61 +2319,61 @@
         <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>85</v>
-      </c>
-      <c r="C100" t="s">
-        <v>25</v>
+        <v>84</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D100" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -2373,61 +2381,61 @@
         <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>88</v>
-      </c>
-      <c r="C104" t="s">
-        <v>25</v>
+        <v>87</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D104" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F104" t="s">
         <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B105" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F105" t="s">
         <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -2435,61 +2443,61 @@
         <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>91</v>
-      </c>
-      <c r="C108" t="s">
-        <v>25</v>
+        <v>90</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C109" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C110" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -2497,61 +2505,61 @@
         <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>94</v>
-      </c>
-      <c r="C112" t="s">
-        <v>25</v>
+        <v>93</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F113" t="s">
         <v>14</v>
       </c>
       <c r="G113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -2559,65 +2567,66 @@
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>97</v>
-      </c>
-      <c r="C116" t="s">
-        <v>25</v>
+        <v>96</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2637,7 +2646,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2648,57 +2657,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
         <v>104</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
         <v>139</v>
-      </c>
-      <c r="C6" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/forms/psa_bag_pre_wt/psa_bag_pre_wt.xlsx
+++ b/forms/psa_bag_pre_wt/psa_bag_pre_wt.xlsx
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -847,42 +847,42 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C6" t="s">
